--- a/public/Computadores.xlsx
+++ b/public/Computadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71492a44d3b51616/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Santiago\argon\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="14_{8CF99F9E-9387-4549-976A-44CE296779C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A94AD8B-A833-43B1-BCB8-6B4C9D4600A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567DEAEA-C399-4697-9158-B9093BEB3EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BEB8C200-78E4-4A9D-9AC8-AA4BB1DFE386}"/>
+    <workbookView xWindow="-22695" yWindow="5340" windowWidth="15375" windowHeight="7875" xr2:uid="{BEB8C200-78E4-4A9D-9AC8-AA4BB1DFE386}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>nombre</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>codigoBarras</t>
+  </si>
+  <si>
+    <t>disponible</t>
   </si>
 </sst>
 </file>
@@ -402,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A8168F-52B8-42A5-AB92-3B0ABDB1826D}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:E4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,10 +428,16 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;KFF8C00 CONFIDENTIAL &amp; RESTRICTED&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>